--- a/Final Grades/Calificaciones Macro II MAE.xlsx
+++ b/Final Grades/Calificaciones Macro II MAE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3eb52eec8da34d1e/GitHub/MacroII/Notas Finales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3eb52eec8da34d1e/GitHub/MacroII/Final Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{69A8D050-299D-F740-BBA9-608498F06F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -777,7 +777,7 @@
   <dimension ref="A2:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
